--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_ward4_impedance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_ward4_impedance.xlsx
@@ -1130,16 +1130,16 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714038</v>
       </c>
       <c r="K2">
         <v>0.1094540870686275</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674505</v>
+        <v>0.1094540870674506</v>
       </c>
       <c r="N2">
         <v>0.9526279647803685</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.693397756226154E-11</v>
+        <v>-8.692255467272226E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464775</v>
+        <v>0.9526279474464779</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.9526279821172765</v>
       </c>
       <c r="Q3">
-        <v>8.709502779460742E-08</v>
+        <v>8.709501412377662E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777273</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860261</v>
+        <v>0.9526279964860258</v>
       </c>
       <c r="Q4">
-        <v>5.191990271699881E-07</v>
+        <v>5.19198940415144E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027254</v>
+        <v>0.952627936102726</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610254</v>
+        <v>0.9526279934610251</v>
       </c>
       <c r="Q5">
-        <v>4.282296728285585E-07</v>
+        <v>4.282296591542202E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717615</v>
+        <v>179.9999995717614</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.9526279315652253</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627997998525</v>
+        <v>0.9526279979985247</v>
       </c>
       <c r="Q6">
-        <v>5.646835317112115E-07</v>
+        <v>5.646835218907129E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783974</v>
+        <v>0.9526279277839746</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797749</v>
+        <v>0.9526280017797747</v>
       </c>
       <c r="Q7">
-        <v>6.783950760030588E-07</v>
+        <v>6.783950661814323E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.9526279270277245</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360249</v>
+        <v>0.9526280025360245</v>
       </c>
       <c r="Q8">
-        <v>7.011373824092594E-07</v>
+        <v>7.011373725875066E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.9526279255152242</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485248</v>
+        <v>0.9526280040485245</v>
       </c>
       <c r="Q9">
-        <v>7.466220029339034E-07</v>
+        <v>7.466219969668676E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992533691</v>
+        <v>179.999999253369</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027233</v>
+        <v>0.9526279240027239</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610248</v>
+        <v>0.9526280055610246</v>
       </c>
       <c r="Q10">
-        <v>7.921066130646913E-07</v>
+        <v>7.921066070972786E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992078845</v>
+        <v>179.9999992078844</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464733</v>
+        <v>0.9526279232464737</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172748</v>
+        <v>0.9526280063172746</v>
       </c>
       <c r="Q11">
-        <v>8.148489214219783E-07</v>
+        <v>8.148489115992215E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991851422</v>
+        <v>179.9999991851421</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777273</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860267</v>
       </c>
       <c r="Q12">
-        <v>1.553219760566072E-07</v>
+        <v>1.553219254097366E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777271</v>
+        <v>0.9526279451777275</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860267</v>
       </c>
       <c r="Q13">
-        <v>1.55321947923508E-07</v>
+        <v>1.553219303969563E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627942908977</v>
+        <v>0.9526279429089776</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547764</v>
+        <v>0.9526279866547762</v>
       </c>
       <c r="Q14">
-        <v>2.235489126848419E-07</v>
+        <v>2.23548878086077E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964764</v>
+        <v>0.9526279413964769</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.952627988167276</v>
+        <v>0.9526279881672758</v>
       </c>
       <c r="Q15">
-        <v>2.690335060546892E-07</v>
+        <v>2.690334923819795E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339776</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297766</v>
       </c>
       <c r="Q16">
-        <v>1.325796687464597E-07</v>
+        <v>1.325796142444977E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2027,16 +2027,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.9526279459339776</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297766</v>
       </c>
       <c r="Q17">
-        <v>1.325796367581429E-07</v>
+        <v>1.325796192317176E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277265</v>
+        <v>0.9526279391277276</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360263</v>
+        <v>0.952627990436026</v>
       </c>
       <c r="Q18">
-        <v>3.372604975891365E-07</v>
+        <v>3.372604348416426E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027263</v>
+        <v>0.9526279361027274</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610261</v>
+        <v>0.9526279934610259</v>
       </c>
       <c r="Q19">
-        <v>4.282297663277533E-07</v>
+        <v>4.28229688182395E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339764</v>
+        <v>0.9526279338339774</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297761</v>
+        <v>0.9526279957297757</v>
       </c>
       <c r="Q20">
-        <v>4.964567210526534E-07</v>
+        <v>4.964566341027445E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777273</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860261</v>
+        <v>0.9526279964860258</v>
       </c>
       <c r="Q21">
-        <v>5.191990348804238E-07</v>
+        <v>5.191989402199528E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2382,13 +2382,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674506</v>
@@ -2521,7 +2521,7 @@
         <v>1.084507397945887</v>
       </c>
       <c r="Q4">
-        <v>29.14059842282393</v>
+        <v>29.14059842282392</v>
       </c>
       <c r="R4">
         <v>-91.10214737018323</v>
@@ -2574,7 +2574,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O5">
-        <v>1.073936237813093</v>
+        <v>1.073936237813092</v>
       </c>
       <c r="P5">
         <v>1.084507397868702</v>
@@ -2875,7 +2875,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764509</v>
+        <v>29.14059842764508</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2928,7 +2928,7 @@
         <v>1.102503198710999</v>
       </c>
       <c r="O11">
-        <v>1.073936237620757</v>
+        <v>1.073936237620756</v>
       </c>
       <c r="P11">
         <v>1.084507398196739</v>
@@ -3164,7 +3164,7 @@
         <v>1.1025031992988</v>
       </c>
       <c r="O15">
-        <v>1.07393623789229</v>
+        <v>1.073936237892289</v>
       </c>
       <c r="P15">
         <v>1.084507397733627</v>
@@ -3524,7 +3524,7 @@
         <v>1.084507397945887</v>
       </c>
       <c r="Q21">
-        <v>29.14059842282393</v>
+        <v>29.14059842282392</v>
       </c>
       <c r="R21">
         <v>-91.10214737018323</v>
@@ -3634,16 +3634,16 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714038</v>
       </c>
       <c r="K2">
         <v>0.1094540870686275</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674505</v>
+        <v>0.1094540870674506</v>
       </c>
       <c r="N2">
         <v>1.102503199997684</v>
@@ -3773,7 +3773,7 @@
         <v>1.084507397956761</v>
       </c>
       <c r="Q4">
-        <v>29.14059842273108</v>
+        <v>29.14059842273107</v>
       </c>
       <c r="R4">
         <v>-91.10214736807154</v>
@@ -3835,7 +3835,7 @@
         <v>29.14059842112402</v>
       </c>
       <c r="R5">
-        <v>-91.10214737876404</v>
+        <v>-91.10214737876403</v>
       </c>
       <c r="S5">
         <v>150.3279626289879</v>
@@ -3891,7 +3891,7 @@
         <v>1.084507397995353</v>
       </c>
       <c r="Q6">
-        <v>29.1405984235346</v>
+        <v>29.14059842353461</v>
       </c>
       <c r="R6">
         <v>-91.10214736272529</v>
@@ -4068,7 +4068,7 @@
         <v>1.084507398149724</v>
       </c>
       <c r="Q9">
-        <v>29.1405984267487</v>
+        <v>29.14059842674871</v>
       </c>
       <c r="R9">
         <v>-91.10214734134031</v>
@@ -4186,7 +4186,7 @@
         <v>1.084507398207613</v>
       </c>
       <c r="Q11">
-        <v>29.14059842795399</v>
+        <v>29.140598427954</v>
       </c>
       <c r="R11">
         <v>-91.10214733332094</v>
@@ -4360,7 +4360,7 @@
         <v>1.073936237887705</v>
       </c>
       <c r="P14">
-        <v>1.084507397705908</v>
+        <v>1.084507397705909</v>
       </c>
       <c r="Q14">
         <v>29.14059841750815</v>
@@ -4540,7 +4540,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
         <v>-91.10214741351464</v>
@@ -4776,7 +4776,7 @@
         <v>1.084507397956761</v>
       </c>
       <c r="Q21">
-        <v>29.14059842273108</v>
+        <v>29.14059842273107</v>
       </c>
       <c r="R21">
         <v>-91.10214736807154</v>
@@ -4907,7 +4907,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720171577574745E-10</v>
+        <v>1.72008609218737E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>0.8660254194054645</v>
       </c>
       <c r="Q3">
-        <v>8.659294056814325E-08</v>
+        <v>8.65929129407899E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,16 +5016,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015303</v>
+        <v>0.86602537510153</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467961</v>
       </c>
       <c r="Q4">
-        <v>9.162326707947185E-07</v>
+        <v>9.162326730711366E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.866025429717962</v>
       </c>
       <c r="Q5">
-        <v>7.415717892597736E-07</v>
+        <v>7.41571757387229E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -5134,16 +5134,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265303</v>
+        <v>0.8660253737265307</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429608</v>
       </c>
       <c r="Q6">
-        <v>1.003563332500695E-06</v>
+        <v>1.003563304867141E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>0.8660254372804599</v>
       </c>
       <c r="Q7">
-        <v>1.221889623808974E-06</v>
+        <v>1.221889596173989E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -5252,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015311</v>
+        <v>0.8660253696015312</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679594</v>
+        <v>0.8660254379679596</v>
       </c>
       <c r="Q8">
-        <v>1.26555487153703E-06</v>
+        <v>1.265554843901883E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.8660253682265314</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>0.8660254393429594</v>
       </c>
       <c r="Q9">
-        <v>1.352885405513922E-06</v>
+        <v>1.352885373637401E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179591</v>
+        <v>0.8660254407179592</v>
       </c>
       <c r="Q10">
-        <v>1.440215924996956E-06</v>
+        <v>1.440215888879217E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5435,10 +5435,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.866025441405459</v>
       </c>
       <c r="Q11">
-        <v>1.483881181466356E-06</v>
+        <v>1.483881145348455E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679644</v>
       </c>
       <c r="Q12">
-        <v>2.175887060947266E-07</v>
+        <v>2.175886773411186E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5556,7 +5556,7 @@
         <v>0.8660254214679644</v>
       </c>
       <c r="Q13">
-        <v>2.175887107487782E-07</v>
+        <v>2.175886746393061E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390286</v>
+        <v>0.8660253840390284</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -5615,13 +5615,13 @@
         <v>0.8660254235304636</v>
       </c>
       <c r="Q14">
-        <v>3.485844307509115E-07</v>
+        <v>3.485844183753289E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5665,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640287</v>
+        <v>0.866025382664029</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054632</v>
       </c>
       <c r="Q15">
-        <v>4.359149882062559E-07</v>
+        <v>4.359149563357782E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804645</v>
       </c>
       <c r="Q16">
-        <v>1.739234516358356E-07</v>
+        <v>1.739234228823884E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5792,7 +5792,7 @@
         <v>0.8660254207804644</v>
       </c>
       <c r="Q17">
-        <v>1.739234562898875E-07</v>
+        <v>1.739234244213159E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015289</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679625</v>
       </c>
       <c r="Q18">
-        <v>5.669106720675813E-07</v>
+        <v>5.669106784238702E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5901,16 +5901,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179619</v>
       </c>
       <c r="Q19">
-        <v>7.415716706057021E-07</v>
+        <v>7.415716833644895E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804612</v>
       </c>
       <c r="Q20">
-        <v>8.725674193805463E-07</v>
+        <v>8.72567421734713E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015303</v>
+        <v>0.86602537510153</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467961</v>
       </c>
       <c r="Q21">
-        <v>9.162326665539788E-07</v>
+        <v>9.162326646672449E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720171577574745E-10</v>
+        <v>1.72008609218737E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0.8660254194054645</v>
       </c>
       <c r="Q3">
-        <v>8.659294056814325E-08</v>
+        <v>8.65929129407899E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,16 +6268,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015303</v>
+        <v>0.86602537510153</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467961</v>
       </c>
       <c r="Q4">
-        <v>9.162326707947185E-07</v>
+        <v>9.162326730711366E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6333,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.866025429717962</v>
       </c>
       <c r="Q5">
-        <v>7.415717892597736E-07</v>
+        <v>7.41571757387229E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -6386,16 +6386,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265303</v>
+        <v>0.8660253737265307</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.8660254338429608</v>
       </c>
       <c r="Q6">
-        <v>1.003563332500695E-06</v>
+        <v>1.003563304867141E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>0.8660254372804599</v>
       </c>
       <c r="Q7">
-        <v>1.221889623808974E-06</v>
+        <v>1.221889596173989E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -6504,16 +6504,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015311</v>
+        <v>0.8660253696015312</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679594</v>
+        <v>0.8660254379679596</v>
       </c>
       <c r="Q8">
-        <v>1.26555487153703E-06</v>
+        <v>1.265554843901883E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.8660253682265314</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>0.8660254393429594</v>
       </c>
       <c r="Q9">
-        <v>1.352885405513922E-06</v>
+        <v>1.352885373637401E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6628,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179591</v>
+        <v>0.8660254407179592</v>
       </c>
       <c r="Q10">
-        <v>1.440215924996956E-06</v>
+        <v>1.440215888879217E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6687,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.866025441405459</v>
       </c>
       <c r="Q11">
-        <v>1.483881181466356E-06</v>
+        <v>1.483881145348455E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -6746,16 +6746,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679644</v>
       </c>
       <c r="Q12">
-        <v>2.175887060947266E-07</v>
+        <v>2.175886773411186E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6808,7 +6808,7 @@
         <v>0.8660254214679644</v>
       </c>
       <c r="Q13">
-        <v>2.175887107487782E-07</v>
+        <v>2.175886746393061E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390286</v>
+        <v>0.8660253840390284</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6867,13 +6867,13 @@
         <v>0.8660254235304636</v>
       </c>
       <c r="Q14">
-        <v>3.485844307509115E-07</v>
+        <v>3.485844183753289E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6917,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640287</v>
+        <v>0.866025382664029</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054632</v>
       </c>
       <c r="Q15">
-        <v>4.359149882062559E-07</v>
+        <v>4.359149563357782E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804645</v>
       </c>
       <c r="Q16">
-        <v>1.739234516358356E-07</v>
+        <v>1.739234228823884E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>0.8660254207804644</v>
       </c>
       <c r="Q17">
-        <v>1.739234562898875E-07</v>
+        <v>1.739234244213159E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015289</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679625</v>
       </c>
       <c r="Q18">
-        <v>5.669106720675813E-07</v>
+        <v>5.669106784238702E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7153,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179619</v>
       </c>
       <c r="Q19">
-        <v>7.415716706057021E-07</v>
+        <v>7.415716833644895E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890297</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804612</v>
       </c>
       <c r="Q20">
-        <v>8.725674193805463E-07</v>
+        <v>8.72567421734713E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,16 +7271,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015303</v>
+        <v>0.86602537510153</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467961</v>
       </c>
       <c r="Q21">
-        <v>9.162326665539788E-07</v>
+        <v>9.162326646672449E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -7467,7 +7467,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081649</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -7526,7 +7526,7 @@
         <v>0.9731342572688788</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -7535,7 +7535,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7585,7 +7585,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -7706,10 +7706,10 @@
         <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7827,7 +7827,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812687</v>
+        <v>-91.24839354812686</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -7883,7 +7883,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909721</v>
+        <v>29.02648254909722</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -7998,10 +7998,10 @@
         <v>0.9731342571857984</v>
       </c>
       <c r="P12">
-        <v>0.9840663098981429</v>
+        <v>0.984066309898143</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
         <v>-91.24839364820043</v>
@@ -8054,13 +8054,13 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O13">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P13">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q13">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R13">
         <v>-91.24839364820043</v>
@@ -8178,7 +8178,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -8299,7 +8299,7 @@
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -8411,7 +8411,7 @@
         <v>0.9731342572481086</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -8467,7 +8467,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -8529,7 +8529,7 @@
         <v>0.9731342572688788</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -8538,7 +8538,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
   </sheetData>
@@ -8719,7 +8719,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081649</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -8778,7 +8778,7 @@
         <v>0.9731342572688788</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -8787,7 +8787,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8837,7 +8837,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -8958,10 +8958,10 @@
         <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9079,7 +9079,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812687</v>
+        <v>-91.24839354812686</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -9135,7 +9135,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909721</v>
+        <v>29.02648254909722</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -9250,10 +9250,10 @@
         <v>0.9731342571857984</v>
       </c>
       <c r="P12">
-        <v>0.9840663098981429</v>
+        <v>0.984066309898143</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
         <v>-91.24839364820043</v>
@@ -9306,13 +9306,13 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O13">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P13">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q13">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R13">
         <v>-91.24839364820043</v>
@@ -9430,7 +9430,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -9551,7 +9551,7 @@
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -9663,7 +9663,7 @@
         <v>0.9731342572481086</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -9719,7 +9719,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -9781,7 +9781,7 @@
         <v>0.9731342572688788</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -9790,7 +9790,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
   </sheetData>
@@ -9873,7 +9873,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391564</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522412838</v>
+        <v>333.3333522412837</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -9894,7 +9894,7 @@
         <v>0.01094540887219866</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
         <v>0.01094540888868898</v>
@@ -9927,7 +9927,7 @@
         <v>120.0000000049951</v>
       </c>
       <c r="T2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9971,16 +9971,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112943</v>
+        <v>0.635085327311294</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114501</v>
+        <v>0.63508529411145</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762056</v>
+        <v>60.00000073762058</v>
       </c>
       <c r="R3">
         <v>-89.99999999999575</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279447</v>
+        <v>0.6350853458279444</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350852838906036</v>
+        <v>0.6350852838906027</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789045</v>
+        <v>60.0000008378906</v>
       </c>
       <c r="R4">
         <v>-89.99999999999575</v>
       </c>
       <c r="S4">
-        <v>120.0000023882382</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853419297015</v>
+        <v>0.6350853419297012</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
@@ -10104,13 +10104,13 @@
         <v>0.63508528604236</v>
       </c>
       <c r="Q5">
-        <v>60.0000008167812</v>
+        <v>60.00000081678123</v>
       </c>
       <c r="R5">
         <v>-89.99999999999571</v>
       </c>
       <c r="S5">
-        <v>120.0000020942208</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853477770644</v>
+        <v>0.6350853477770642</v>
       </c>
       <c r="O6">
         <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147241</v>
+        <v>0.635085282814724</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844548</v>
+        <v>60.00000084844551</v>
       </c>
       <c r="R6">
         <v>-89.99999999999569</v>
       </c>
       <c r="S6">
-        <v>120.0000025352467</v>
+        <v>120.0000025352466</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,16 +10219,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.635085352649867</v>
+        <v>0.6350853526498667</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250272</v>
+        <v>0.6350852801250271</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483237</v>
+        <v>60.00000087483239</v>
       </c>
       <c r="R7">
         <v>-89.99999999999568</v>
@@ -10281,19 +10281,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244274</v>
+        <v>0.6350853536244272</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852795870878</v>
+        <v>0.6350852795870877</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010975</v>
+        <v>60.00000088010977</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S8">
         <v>120.0000029762726</v>
@@ -10343,16 +10343,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735483</v>
+        <v>0.6350853555735479</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112092</v>
+        <v>0.6350852785112091</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066452</v>
+        <v>60.00000089066455</v>
       </c>
       <c r="R9">
         <v>-89.99999999999567</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226691</v>
+        <v>0.6350853575226689</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353304</v>
+        <v>0.6350852774353303</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121931</v>
+        <v>60.00000090121934</v>
       </c>
       <c r="R10">
         <v>-89.99999999999565</v>
       </c>
       <c r="S10">
-        <v>120.0000032702899</v>
+        <v>120.0000032702898</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972296</v>
+        <v>0.6350853584972294</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973908</v>
+        <v>0.6350852768973907</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649672</v>
+        <v>60.00000090649675</v>
       </c>
       <c r="R11">
         <v>-89.99999999999565</v>
       </c>
       <c r="S11">
-        <v>120.0000033437942</v>
+        <v>120.0000033437941</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,19 +10529,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349755</v>
+        <v>0.6350853302349754</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976312</v>
+        <v>0.6350852924976315</v>
       </c>
       <c r="Q12">
-        <v>60.0000007534528</v>
+        <v>60.00000075345279</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S12">
         <v>120.0000012121689</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349754</v>
+        <v>0.6350853302349752</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
@@ -10600,7 +10600,7 @@
         <v>0.6350852924976316</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345277</v>
+        <v>60.0000007534528</v>
       </c>
       <c r="R13">
         <v>-89.99999999999572</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586576</v>
+        <v>0.6350853331586572</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838145</v>
+        <v>0.6350852908838144</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928473</v>
+        <v>60.00000076928477</v>
       </c>
       <c r="R14">
         <v>-89.99999999999575</v>
       </c>
       <c r="S14">
-        <v>120.000001432682</v>
+        <v>120.0000014326819</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335107778</v>
+        <v>0.6350853351077779</v>
       </c>
       <c r="O15">
         <v>1.100000023884844</v>
@@ -10724,7 +10724,7 @@
         <v>0.6350852898079354</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983957</v>
+        <v>60.00000077983958</v>
       </c>
       <c r="R15">
         <v>-89.99999999999572</v>
@@ -10783,7 +10783,7 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.635085293035571</v>
+        <v>0.6350852930355712</v>
       </c>
       <c r="Q16">
         <v>60.00000074817538</v>
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604151</v>
+        <v>0.6350853292604147</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
@@ -10848,7 +10848,7 @@
         <v>0.6350852930355713</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817535</v>
+        <v>60.00000074817538</v>
       </c>
       <c r="R17">
         <v>-89.99999999999572</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314603</v>
+        <v>0.6350853380314599</v>
       </c>
       <c r="O18">
         <v>1.100000023884844</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941182</v>
+        <v>0.6350852881941177</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567153</v>
+        <v>60.00000079567161</v>
       </c>
       <c r="R18">
         <v>-89.99999999999575</v>
       </c>
       <c r="S18">
-        <v>120.0000018002036</v>
+        <v>120.0000018002035</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297027</v>
+        <v>0.6350853419297022</v>
       </c>
       <c r="O19">
         <v>1.100000023884844</v>
       </c>
       <c r="P19">
-        <v>0.635085286042361</v>
+        <v>0.6350852860423604</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678098</v>
+        <v>60.00000081678107</v>
       </c>
       <c r="R19">
         <v>-89.99999999999575</v>
       </c>
       <c r="S19">
-        <v>120.0000020942209</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533842</v>
+        <v>0.6350853448533836</v>
       </c>
       <c r="O20">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285431</v>
+        <v>0.6350852844285422</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261308</v>
+        <v>60.0000008326132</v>
       </c>
       <c r="R20">
         <v>-89.99999999999575</v>
       </c>
       <c r="S20">
-        <v>120.0000023147339</v>
+        <v>120.0000023147338</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279447</v>
+        <v>0.6350853458279443</v>
       </c>
       <c r="O21">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.6350852838906036</v>
+        <v>0.6350852838906027</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789045</v>
+        <v>60.0000008378906</v>
       </c>
       <c r="R21">
         <v>-89.99999999999575</v>
       </c>
       <c r="S21">
-        <v>120.0000023882382</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11206,13 +11206,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219868</v>
+        <v>0.01094540887219867</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868895</v>
+        <v>0.01094540888868894</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372386</v>
+        <v>0.6350853281372385</v>
       </c>
       <c r="O3">
         <v>1.100000023884845</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615861</v>
+        <v>0.6350852933615855</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271604</v>
+        <v>60.00000077271612</v>
       </c>
       <c r="R3">
         <v>-89.99999999999575</v>
       </c>
       <c r="S3">
-        <v>120.0000010386398</v>
+        <v>120.0000010386397</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538894</v>
+        <v>0.6350853466538892</v>
       </c>
       <c r="O4">
         <v>1.100000023884846</v>
       </c>
       <c r="P4">
-        <v>0.6350852831407394</v>
+        <v>0.6350852831407368</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298594</v>
+        <v>60.00000087298633</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S4">
-        <v>120.000002435222</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11416,13 +11416,13 @@
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.635085285292496</v>
+        <v>0.6350852852924954</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187671</v>
+        <v>60.00000085187678</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
         <v>120.0000021412045</v>
@@ -11478,13 +11478,13 @@
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648599</v>
+        <v>0.6350852820648594</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354098</v>
+        <v>60.00000088354105</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S6">
         <v>120.0000025822304</v>
@@ -11534,19 +11534,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758114</v>
+        <v>0.6350853534758113</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751631</v>
+        <v>0.6350852793751627</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992787</v>
+        <v>60.00000090992793</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S7">
         <v>120.000002949752</v>
@@ -11602,13 +11602,13 @@
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372235</v>
+        <v>0.6350852788372232</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520525</v>
+        <v>60.00000091520531</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S8">
         <v>120.0000030232563</v>
@@ -11658,19 +11658,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994929</v>
+        <v>0.6350853563994926</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613452</v>
+        <v>0.6350852777613447</v>
       </c>
       <c r="Q9">
-        <v>60.00000092576001</v>
+        <v>60.00000092576008</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S9">
         <v>120.000003170265</v>
@@ -11720,19 +11720,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853583486138</v>
+        <v>0.6350853583486136</v>
       </c>
       <c r="O10">
         <v>1.100000023884847</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854664</v>
+        <v>0.6350852766854659</v>
       </c>
       <c r="Q10">
-        <v>60.0000009363148</v>
+        <v>60.00000093631486</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S10">
         <v>120.0000033172736</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231741</v>
+        <v>0.635085359323174</v>
       </c>
       <c r="O11">
         <v>1.100000023884847</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475269</v>
+        <v>0.6350852761475263</v>
       </c>
       <c r="Q11">
-        <v>60.0000009415922</v>
+        <v>60.00000094159226</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S11">
-        <v>120.000003390778</v>
+        <v>120.0000033907779</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,16 +11844,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.63508533106092</v>
+        <v>0.6350853310609201</v>
       </c>
       <c r="O12">
         <v>1.100000023884845</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477673</v>
+        <v>0.6350852917477668</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854828</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R12">
         <v>-89.99999999999574</v>
@@ -11912,16 +11912,16 @@
         <v>1.100000023884845</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477675</v>
+        <v>0.6350852917477668</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854826</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
-        <v>120.0000012591527</v>
+        <v>120.0000012591526</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11968,19 +11968,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846022</v>
+        <v>0.6350853339846018</v>
       </c>
       <c r="O14">
         <v>1.100000023884845</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339504</v>
+        <v>0.6350852901339494</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438021</v>
+        <v>60.00000080438038</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
         <v>120.0000014796657</v>
@@ -12030,19 +12030,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853359337226</v>
+        <v>0.6350853359337224</v>
       </c>
       <c r="O15">
         <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580714</v>
+        <v>0.6350852890580708</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493506</v>
+        <v>60.00000081493513</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S15">
         <v>120.0000016266743</v>
@@ -12098,16 +12098,16 @@
         <v>1.100000023884845</v>
       </c>
       <c r="P16">
-        <v>0.635085292285707</v>
+        <v>0.6350852922857064</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327087</v>
+        <v>60.00000078327091</v>
       </c>
       <c r="R16">
         <v>-89.99999999999574</v>
       </c>
       <c r="S16">
-        <v>120.0000011856484</v>
+        <v>120.0000011856483</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -12154,22 +12154,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853300863596</v>
+        <v>0.6350853300863594</v>
       </c>
       <c r="O17">
         <v>1.100000023884845</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857071</v>
+        <v>0.6350852922857065</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327086</v>
+        <v>60.00000078327092</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>120.0000011856484</v>
+        <v>120.0000011856483</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574049</v>
+        <v>0.6350853388574046</v>
       </c>
       <c r="O18">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442541</v>
+        <v>0.6350852874442526</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076702</v>
+        <v>60.00000083076723</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S18">
-        <v>120.0000018471874</v>
+        <v>120.0000018471873</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556472</v>
+        <v>0.6350853427556469</v>
       </c>
       <c r="O19">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924969</v>
+        <v>0.635085285292495</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187648</v>
+        <v>60.00000085187676</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S19">
-        <v>120.0000021412047</v>
+        <v>120.0000021412046</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793288</v>
+        <v>0.6350853456793286</v>
       </c>
       <c r="O20">
         <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786789</v>
+        <v>0.6350852836786764</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770856</v>
+        <v>60.00000086770891</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S20">
-        <v>120.0000023617177</v>
+        <v>120.0000023617175</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538894</v>
+        <v>0.635085346653889</v>
       </c>
       <c r="O21">
         <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.6350852831407394</v>
+        <v>0.6350852831407369</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298594</v>
+        <v>60.0000008729863</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S21">
-        <v>120.000002435222</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0.01094540887219866</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
         <v>0.01094540888868898</v>
@@ -12672,10 +12672,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q4">
-        <v>29.9221296297744</v>
+        <v>29.92212962977439</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -12737,7 +12737,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S5">
         <v>149.524656679918</v>
@@ -13171,7 +13171,7 @@
         <v>29.92212961775842</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S12">
         <v>149.5246566729963</v>
@@ -13419,7 +13419,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S16">
         <v>149.5246566724194</v>
@@ -13481,7 +13481,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S17">
         <v>149.5246566724194</v>
@@ -13605,7 +13605,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.524656679918</v>
@@ -13726,10 +13726,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q21">
-        <v>29.9221296297744</v>
+        <v>29.92212962977439</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14332,13 +14332,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219868</v>
+        <v>0.01094540887219867</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868895</v>
+        <v>0.01094540888868894</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496877498112</v>
       </c>
       <c r="Q11">
-        <v>29.92212964027296</v>
+        <v>29.92212964027295</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -14976,10 +14976,10 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P12">
-        <v>1.096496877792916</v>
+        <v>1.096496877792915</v>
       </c>
       <c r="Q12">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R12">
         <v>-89.99999999999635</v>
@@ -15041,10 +15041,10 @@
         <v>1.096496877792915</v>
       </c>
       <c r="Q13">
-        <v>29.92212961849399</v>
+        <v>29.922129618494</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246566733128</v>
@@ -15478,7 +15478,7 @@
         <v>29.92212962975898</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.524656681965</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -15665,7 +15665,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -15674,7 +15674,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15733,16 +15733,16 @@
         <v>0.9999999999962961</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027885</v>
+        <v>0.5773502543027889</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610994</v>
+        <v>60.00000076610992</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S3">
-        <v>120.0000010262631</v>
+        <v>120.0000010262632</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881817</v>
+        <v>0.577350305888182</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802627</v>
+        <v>0.5773502484802641</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007628</v>
+        <v>60.00000027007616</v>
       </c>
       <c r="R4">
         <v>-89.99999999999589</v>
       </c>
       <c r="S4">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,19 +15851,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060587</v>
+        <v>0.577350249706059</v>
       </c>
       <c r="Q5">
         <v>60.00000037450432</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -15913,19 +15913,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252842</v>
+        <v>0.5773503080252843</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P6">
-        <v>0.577350247867367</v>
+        <v>0.5773502478673673</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786206</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S6">
         <v>120.0000032289265</v>
@@ -15975,22 +15975,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680399</v>
+        <v>0.57735031336804</v>
       </c>
       <c r="O7">
         <v>0.9999999999962959</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351239</v>
+        <v>0.5773502463351241</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732688</v>
+        <v>60.00000008732687</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S7">
-        <v>120.0000037533701</v>
+        <v>120.0000037533702</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -16037,16 +16037,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.577350314436591</v>
+        <v>0.5773503144365911</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286752</v>
+        <v>0.5773502460286755</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121983</v>
+        <v>60.00000006121981</v>
       </c>
       <c r="R8">
         <v>-89.99999999999591</v>
@@ -16099,19 +16099,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736933</v>
+        <v>0.5773503165736934</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P9">
-        <v>0.577350245415778</v>
+        <v>0.5773502454157782</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900576</v>
+        <v>60.00000000900573</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -16161,16 +16161,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107956</v>
+        <v>0.5773503187107958</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028807</v>
+        <v>0.577350244802881</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679165</v>
       </c>
       <c r="R10">
         <v>-89.99999999999592</v>
@@ -16223,22 +16223,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793468</v>
+        <v>0.5773503197793471</v>
       </c>
       <c r="O11">
         <v>0.9999999999962956</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964321</v>
+        <v>0.5773502444964322</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068464</v>
+        <v>59.99999993068461</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S11">
-        <v>120.0000043827025</v>
+        <v>120.0000043827026</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -16285,22 +16285,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913637</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O12">
         <v>0.9999999999962961</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778882</v>
+        <v>60.00000068778881</v>
       </c>
       <c r="R12">
         <v>-89.99999999999585</v>
       </c>
       <c r="S12">
-        <v>120.0000013409293</v>
+        <v>120.0000013409294</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16347,19 +16347,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913639</v>
+        <v>0.5773502887913642</v>
       </c>
       <c r="O13">
         <v>0.9999999999962961</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834427</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778881</v>
+        <v>60.00000068778878</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -16409,22 +16409,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970169</v>
+        <v>0.5773502919970174</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962963</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640967</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946774</v>
+        <v>60.00000060946768</v>
       </c>
       <c r="R14">
         <v>-89.99999999999586</v>
       </c>
       <c r="S14">
-        <v>120.0000016555955</v>
+        <v>120.0000016555956</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -16471,19 +16471,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341194</v>
+        <v>0.5773502941341195</v>
       </c>
       <c r="O15">
         <v>0.9999999999962961</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.5773502518511995</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725359</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -16533,19 +16533,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228125</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O16">
         <v>0.9999999999962961</v>
       </c>
       <c r="P16">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898913</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389586</v>
+        <v>60.00000071389584</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S16">
         <v>120.0000012360406</v>
@@ -16595,22 +16595,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228127</v>
+        <v>0.5773502877228128</v>
       </c>
       <c r="O17">
         <v>0.9999999999962961</v>
       </c>
       <c r="P17">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898913</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389586</v>
+        <v>60.00000071389584</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S17">
-        <v>120.0000012360406</v>
+        <v>120.0000012360407</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -16657,22 +16657,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397727</v>
+        <v>0.5773502973397733</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318524</v>
+        <v>0.5773502509318533</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893256</v>
+        <v>60.00000047893247</v>
       </c>
       <c r="R18">
         <v>-89.99999999999588</v>
       </c>
       <c r="S18">
-        <v>120.0000021800391</v>
+        <v>120.0000021800392</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,22 +16719,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139772</v>
+        <v>0.5773503016139776</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060576</v>
+        <v>0.5773502497060586</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450442</v>
+        <v>60.00000037450432</v>
       </c>
       <c r="R19">
         <v>-89.99999999999589</v>
       </c>
       <c r="S19">
-        <v>120.000002599594</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196306</v>
+        <v>0.577350304819631</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867114</v>
+        <v>0.5773502487867126</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618332</v>
+        <v>60.0000002961832</v>
       </c>
       <c r="R20">
         <v>-89.99999999999589</v>
       </c>
       <c r="S20">
-        <v>120.0000029142602</v>
+        <v>120.0000029142603</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881817</v>
+        <v>0.5773503058881821</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802627</v>
+        <v>0.5773502484802638</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007628</v>
+        <v>60.00000027007617</v>
       </c>
       <c r="R21">
         <v>-89.99999999999589</v>
       </c>
       <c r="S21">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -16980,7 +16980,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -16989,7 +16989,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -17048,16 +17048,16 @@
         <v>0.9999999999962961</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027885</v>
+        <v>0.5773502543027889</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610994</v>
+        <v>60.00000076610992</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999584</v>
       </c>
       <c r="S3">
-        <v>120.0000010262631</v>
+        <v>120.0000010262632</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881817</v>
+        <v>0.577350305888182</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802627</v>
+        <v>0.5773502484802641</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007628</v>
+        <v>60.00000027007616</v>
       </c>
       <c r="R4">
         <v>-89.99999999999589</v>
       </c>
       <c r="S4">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,19 +17166,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060587</v>
+        <v>0.577350249706059</v>
       </c>
       <c r="Q5">
         <v>60.00000037450432</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -17228,19 +17228,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252842</v>
+        <v>0.5773503080252843</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962959</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P6">
-        <v>0.577350247867367</v>
+        <v>0.5773502478673673</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786206</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S6">
         <v>120.0000032289265</v>
@@ -17290,22 +17290,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680399</v>
+        <v>0.57735031336804</v>
       </c>
       <c r="O7">
         <v>0.9999999999962959</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351239</v>
+        <v>0.5773502463351241</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732688</v>
+        <v>60.00000008732687</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S7">
-        <v>120.0000037533701</v>
+        <v>120.0000037533702</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -17352,16 +17352,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.577350314436591</v>
+        <v>0.5773503144365911</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286752</v>
+        <v>0.5773502460286755</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121983</v>
+        <v>60.00000006121981</v>
       </c>
       <c r="R8">
         <v>-89.99999999999591</v>
@@ -17414,19 +17414,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736933</v>
+        <v>0.5773503165736934</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P9">
-        <v>0.577350245415778</v>
+        <v>0.5773502454157782</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900576</v>
+        <v>60.00000000900573</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -17476,16 +17476,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107956</v>
+        <v>0.5773503187107958</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028807</v>
+        <v>0.577350244802881</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679165</v>
       </c>
       <c r="R10">
         <v>-89.99999999999592</v>
@@ -17538,22 +17538,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793468</v>
+        <v>0.5773503197793471</v>
       </c>
       <c r="O11">
         <v>0.9999999999962956</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964321</v>
+        <v>0.5773502444964322</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068464</v>
+        <v>59.99999993068461</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S11">
-        <v>120.0000043827025</v>
+        <v>120.0000043827026</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -17600,22 +17600,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913637</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O12">
         <v>0.9999999999962961</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834426</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778882</v>
+        <v>60.00000068778881</v>
       </c>
       <c r="R12">
         <v>-89.99999999999585</v>
       </c>
       <c r="S12">
-        <v>120.0000013409293</v>
+        <v>120.0000013409294</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17662,19 +17662,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913639</v>
+        <v>0.5773502887913642</v>
       </c>
       <c r="O13">
         <v>0.9999999999962961</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834427</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778881</v>
+        <v>60.00000068778878</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -17724,22 +17724,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970169</v>
+        <v>0.5773502919970174</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962963</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640967</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946774</v>
+        <v>60.00000060946768</v>
       </c>
       <c r="R14">
         <v>-89.99999999999586</v>
       </c>
       <c r="S14">
-        <v>120.0000016555955</v>
+        <v>120.0000016555956</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -17786,19 +17786,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341194</v>
+        <v>0.5773502941341195</v>
       </c>
       <c r="O15">
         <v>0.9999999999962961</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.5773502518511995</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725359</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -17848,19 +17848,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228125</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O16">
         <v>0.9999999999962961</v>
       </c>
       <c r="P16">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898913</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389586</v>
+        <v>60.00000071389584</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S16">
         <v>120.0000012360406</v>
@@ -17910,22 +17910,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228127</v>
+        <v>0.5773502877228128</v>
       </c>
       <c r="O17">
         <v>0.9999999999962961</v>
       </c>
       <c r="P17">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898913</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389586</v>
+        <v>60.00000071389584</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S17">
-        <v>120.0000012360406</v>
+        <v>120.0000012360407</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -17972,22 +17972,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397727</v>
+        <v>0.5773502973397733</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962961</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318524</v>
+        <v>0.5773502509318533</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893256</v>
+        <v>60.00000047893247</v>
       </c>
       <c r="R18">
         <v>-89.99999999999588</v>
       </c>
       <c r="S18">
-        <v>120.0000021800391</v>
+        <v>120.0000021800392</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,22 +18034,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139772</v>
+        <v>0.5773503016139776</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060576</v>
+        <v>0.5773502497060586</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450442</v>
+        <v>60.00000037450432</v>
       </c>
       <c r="R19">
         <v>-89.99999999999589</v>
       </c>
       <c r="S19">
-        <v>120.000002599594</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196306</v>
+        <v>0.577350304819631</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867114</v>
+        <v>0.5773502487867126</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618332</v>
+        <v>60.0000002961832</v>
       </c>
       <c r="R20">
         <v>-89.99999999999589</v>
       </c>
       <c r="S20">
-        <v>120.0000029142602</v>
+        <v>120.0000029142603</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881817</v>
+        <v>0.5773503058881821</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802627</v>
+        <v>0.5773502484802638</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007628</v>
+        <v>60.00000027007617</v>
       </c>
       <c r="R21">
         <v>-89.99999999999589</v>
       </c>
       <c r="S21">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -18425,7 +18425,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -18927,7 +18927,7 @@
         <v>29.91230407979453</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.4607573040611</v>
@@ -19051,7 +19051,7 @@
         <v>29.91230408252077</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.4607573070525</v>
@@ -19479,7 +19479,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -19740,7 +19740,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -20242,7 +20242,7 @@
         <v>29.91230407979453</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.4607573040611</v>
@@ -20366,7 +20366,7 @@
         <v>29.91230408252077</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.4607573070525</v>
@@ -20794,7 +20794,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -20895,7 +20895,7 @@
         <v>57.73503018874288</v>
       </c>
       <c r="D2">
-        <v>57.73503019620926</v>
+        <v>57.73503019620924</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -20904,7 +20904,7 @@
         <v>333.3333522114187</v>
       </c>
       <c r="G2">
-        <v>333.3333522545259</v>
+        <v>333.3333522545258</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -20913,13 +20913,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674506</v>
@@ -20934,7 +20934,7 @@
         <v>0.6350853098608015</v>
       </c>
       <c r="Q2">
-        <v>4.228458211276003E-09</v>
+        <v>4.228458052231934E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20987,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.635085294097668</v>
+        <v>0.6350852940976681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -20996,13 +20996,13 @@
         <v>0.6350853272056293</v>
       </c>
       <c r="Q3">
-        <v>9.908897703630627E-07</v>
+        <v>9.908896775532227E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578329</v>
+        <v>-179.9999992578328</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,16 +21049,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768186</v>
+        <v>0.6350852838768174</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.63508534572228</v>
+        <v>0.6350853457222793</v>
       </c>
       <c r="Q4">
-        <v>2.387471879046079E-06</v>
+        <v>2.387471708012198E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -21111,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285742</v>
+        <v>0.6350852860285743</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -21120,7 +21120,7 @@
         <v>0.6350853418240362</v>
       </c>
       <c r="Q5">
-        <v>2.093454436649392E-06</v>
+        <v>2.093454355400108E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21173,7 +21173,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009366</v>
+        <v>0.6350852828009368</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -21182,7 +21182,7 @@
         <v>0.635085347671399</v>
       </c>
       <c r="Q6">
-        <v>2.534480320106092E-06</v>
+        <v>2.534480244637629E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21244,7 +21244,7 @@
         <v>0.6350853525442014</v>
       </c>
       <c r="Q7">
-        <v>2.902001903347671E-06</v>
+        <v>2.90200182787757E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -21303,10 +21303,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187619</v>
+        <v>0.6350853535187622</v>
       </c>
       <c r="Q8">
-        <v>2.975506220685522E-06</v>
+        <v>2.975506139432409E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974198</v>
+        <v>0.6350852784974199</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>0.6350853554678829</v>
       </c>
       <c r="Q9">
-        <v>3.122514844006423E-06</v>
+        <v>3.122514756969755E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,7 +21421,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215405</v>
+        <v>0.6350852774215406</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -21430,7 +21430,7 @@
         <v>0.635085357417004</v>
       </c>
       <c r="Q10">
-        <v>3.269523467164331E-06</v>
+        <v>3.269523380127114E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -21483,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836007</v>
+        <v>0.6350852768836009</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -21492,7 +21492,7 @@
         <v>0.6350853583915644</v>
       </c>
       <c r="Q11">
-        <v>3.343027784731438E-06</v>
+        <v>3.343027697694035E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21554,7 +21554,7 @@
         <v>0.6350853301293107</v>
       </c>
       <c r="Q12">
-        <v>1.211402720229386E-06</v>
+        <v>1.211402574224757E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838485</v>
+        <v>0.6350852924838486</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853301293107</v>
+        <v>0.6350853301293106</v>
       </c>
       <c r="Q13">
-        <v>1.211402669640932E-06</v>
+        <v>1.211402582613184E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21669,16 +21669,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700311</v>
+        <v>0.635085290870031</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853330529926</v>
+        <v>0.6350853330529924</v>
       </c>
       <c r="Q14">
-        <v>1.431915668850397E-06</v>
+        <v>1.431915554928178E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -21731,7 +21731,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941514</v>
+        <v>0.6350852897941515</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -21740,7 +21740,7 @@
         <v>0.6350853350021131</v>
       </c>
       <c r="Q15">
-        <v>1.578924259829376E-06</v>
+        <v>1.578924172799632E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21802,7 +21802,7 @@
         <v>0.6350853291547504</v>
       </c>
       <c r="Q16">
-        <v>1.137898405226263E-06</v>
+        <v>1.137898270787474E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217883</v>
+        <v>0.6350852930217885</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547502</v>
+        <v>0.63508532915475</v>
       </c>
       <c r="Q17">
-        <v>1.137898360420636E-06</v>
+        <v>1.137898273393074E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803341</v>
+        <v>0.6350852881803335</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257955</v>
+        <v>0.6350853379257951</v>
       </c>
       <c r="Q18">
-        <v>1.799437288116788E-06</v>
+        <v>1.799437138038997E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991997819</v>
+        <v>-179.9999991997818</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,16 +21979,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285764</v>
+        <v>0.6350852860285755</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240379</v>
+        <v>0.6350853418240372</v>
       </c>
       <c r="Q19">
-        <v>2.093454593194453E-06</v>
+        <v>2.093454425614467E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -22041,16 +22041,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852844147582</v>
+        <v>0.635085284414757</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477195</v>
+        <v>0.6350853447477188</v>
       </c>
       <c r="Q20">
-        <v>2.313967568198361E-06</v>
+        <v>2.313967396559352E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -22103,16 +22103,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768186</v>
+        <v>0.6350852838768174</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.63508534572228</v>
+        <v>0.6350853457222793</v>
       </c>
       <c r="Q21">
-        <v>2.387471873263252E-06</v>
+        <v>2.38747169584123E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -22228,16 +22228,16 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714038</v>
       </c>
       <c r="K2">
         <v>0.1094540870686275</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674505</v>
+        <v>0.1094540870674506</v>
       </c>
       <c r="N2">
         <v>0.6350853098448019</v>
@@ -22249,13 +22249,13 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228442587551278E-09</v>
+        <v>4.228453962503742E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999948365</v>
+        <v>-179.9999999948366</v>
       </c>
       <c r="T2">
         <v>57.7350301918306</v>
@@ -22308,16 +22308,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.635085328031573</v>
+        <v>0.6350853280315724</v>
       </c>
       <c r="Q3">
-        <v>1.037873697159788E-06</v>
+        <v>1.037873684672258E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992227374</v>
+        <v>-179.9999992227375</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852831269547</v>
+        <v>0.6350852831269536</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482238</v>
+        <v>0.635085346548222</v>
       </c>
       <c r="Q4">
-        <v>2.434455819119506E-06</v>
+        <v>2.434455767416237E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22426,22 +22426,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.63508528527871</v>
+        <v>0.6350852852787101</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.63508534264998</v>
+        <v>0.6350853426499796</v>
       </c>
       <c r="Q5">
-        <v>2.1404383876735E-06</v>
+        <v>2.140438375180913E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991435769</v>
+        <v>-179.999999143577</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510724</v>
+        <v>0.6350852820510725</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973429</v>
+        <v>0.6350853484973422</v>
       </c>
       <c r="Q6">
-        <v>2.581464277540806E-06</v>
+        <v>2.581464270829058E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991119127</v>
+        <v>-179.9999991119128</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701454</v>
+        <v>0.6350853533701448</v>
       </c>
       <c r="Q7">
-        <v>2.948985843957055E-06</v>
+        <v>2.948985854592162E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999990855258</v>
+        <v>-179.9999990855259</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234349</v>
+        <v>0.6350852788234351</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447059</v>
+        <v>0.6350853543447053</v>
       </c>
       <c r="Q8">
-        <v>3.02249015561671E-06</v>
+        <v>3.02249017203446E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999990802484</v>
+        <v>-179.9999990802485</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22680,16 +22680,16 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.635085356293827</v>
+        <v>0.6350853562938263</v>
       </c>
       <c r="Q9">
-        <v>3.169498779146869E-06</v>
+        <v>3.169498789781072E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999990696937</v>
+        <v>-179.9999990696938</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22742,10 +22742,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429478</v>
+        <v>0.6350853582429472</v>
       </c>
       <c r="Q10">
-        <v>3.316507402514037E-06</v>
+        <v>3.316507413147697E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22804,10 +22804,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175082</v>
+        <v>0.6350853592175075</v>
       </c>
       <c r="Q11">
-        <v>3.390011720185774E-06</v>
+        <v>3.390011736602079E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339844</v>
+        <v>0.6350852917339848</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552548</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q12">
-        <v>1.258386640375912E-06</v>
+        <v>1.258386602684639E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069054</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339848</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552545</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q13">
-        <v>1.258386621995585E-06</v>
+        <v>1.258386615290156E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201671</v>
+        <v>0.6350852901201668</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789365</v>
+        <v>0.6350853338789355</v>
       </c>
       <c r="Q14">
-        <v>1.478899607563633E-06</v>
+        <v>1.478899581791692E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999991910732</v>
+        <v>-179.9999991910733</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -23046,16 +23046,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442871</v>
+        <v>0.6350852890442872</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853358280568</v>
+        <v>0.6350853358280563</v>
       </c>
       <c r="Q15">
-        <v>1.625908198555419E-06</v>
+        <v>1.625908191848007E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -23114,10 +23114,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806938</v>
       </c>
       <c r="Q16">
-        <v>1.184882331050985E-06</v>
+        <v>1.184882293359895E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23176,10 +23176,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806933</v>
       </c>
       <c r="Q17">
-        <v>1.184882318453485E-06</v>
+        <v>1.184882305965412E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.63508528743047</v>
+        <v>0.6350852874304697</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517393</v>
+        <v>0.6350853387517382</v>
       </c>
       <c r="Q18">
-        <v>1.846421215787521E-06</v>
+        <v>1.846421170390994E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,22 +23294,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787124</v>
+        <v>0.6350852852787118</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499816</v>
+        <v>0.6350853426499804</v>
       </c>
       <c r="Q19">
-        <v>2.140438521283705E-06</v>
+        <v>2.140438463393976E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991435769</v>
+        <v>-179.999999143577</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -23356,16 +23356,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085283664894</v>
+        <v>0.6350852836648931</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736634</v>
+        <v>0.6350853455736614</v>
       </c>
       <c r="Q20">
-        <v>2.360951508167158E-06</v>
+        <v>2.360951449841643E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852831269547</v>
+        <v>0.6350852831269536</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482238</v>
+        <v>0.635085346548222</v>
       </c>
       <c r="Q21">
-        <v>2.434455819119506E-06</v>
+        <v>2.434455755010982E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674506</v>
@@ -23750,7 +23750,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q5">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R5">
         <v>-90.55768083460144</v>
@@ -24122,7 +24122,7 @@
         <v>1.090352557057971</v>
       </c>
       <c r="Q11">
-        <v>29.52465668972898</v>
+        <v>29.52465668972899</v>
       </c>
       <c r="R11">
         <v>-90.55768081187988</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O12">
         <v>1.08686215226662</v>
@@ -24246,7 +24246,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q13">
-        <v>29.52465667300136</v>
+        <v>29.52465667300135</v>
       </c>
       <c r="R13">
         <v>-90.55768085064017</v>
@@ -24556,7 +24556,7 @@
         <v>1.090352556961868</v>
       </c>
       <c r="Q18">
-        <v>29.52465667761588</v>
+        <v>29.52465667761587</v>
       </c>
       <c r="R18">
         <v>-90.55768083994768</v>
@@ -24618,7 +24618,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q19">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R19">
         <v>-90.55768083460144</v>
@@ -24677,7 +24677,7 @@
         <v>1.086862152180745</v>
       </c>
       <c r="P20">
-        <v>1.090352556993903</v>
+        <v>1.090352556993902</v>
       </c>
       <c r="Q20">
         <v>29.52465668165357</v>
@@ -24858,16 +24858,16 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714038</v>
       </c>
       <c r="K2">
         <v>0.1094540870686275</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674505</v>
+        <v>0.1094540870674506</v>
       </c>
       <c r="N2">
         <v>1.096496878100584</v>
@@ -25127,7 +25127,7 @@
         <v>1.090352557006645</v>
       </c>
       <c r="Q6">
-        <v>29.52465668370054</v>
+        <v>29.52465668370055</v>
       </c>
       <c r="R6">
         <v>-90.55768082552622</v>
@@ -25623,7 +25623,7 @@
         <v>1.090352556938001</v>
       </c>
       <c r="Q14">
-        <v>29.52465667504833</v>
+        <v>29.52465667504832</v>
       </c>
       <c r="R14">
         <v>-90.55768084557464</v>
@@ -25871,7 +25871,7 @@
         <v>1.090352556960882</v>
       </c>
       <c r="Q18">
-        <v>29.5246566779324</v>
+        <v>29.52465667793239</v>
       </c>
       <c r="R18">
         <v>-90.55768083889184</v>
@@ -26155,7 +26155,7 @@
         <v>46.18802315050826</v>
       </c>
       <c r="D2">
-        <v>46.18802315729565</v>
+        <v>46.18802315729566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -26164,7 +26164,7 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320131</v>
+        <v>266.6666760320132</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534685910504859E-09</v>
+        <v>4.534679471400005E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393526</v>
+        <v>0.5773502543393532</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594387</v>
       </c>
       <c r="Q3">
-        <v>1.02915435841597E-06</v>
+        <v>1.029154328464116E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,22 +26309,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168291</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619083</v>
       </c>
       <c r="Q4">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040016828786E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426232</v>
+        <v>0.5773502497426237</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877044</v>
       </c>
       <c r="Q5">
-        <v>2.602485319515956E-06</v>
+        <v>2.602485283194609E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -26433,16 +26433,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039316</v>
+        <v>0.5773502479039322</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990098</v>
+        <v>0.5773503079990104</v>
       </c>
       <c r="Q6">
-        <v>3.231817703007531E-06</v>
+        <v>3.23181766668289E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -26495,16 +26495,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716889</v>
+        <v>0.5773502463716894</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.5773503133417655</v>
       </c>
       <c r="Q7">
-        <v>3.75626135707384E-06</v>
+        <v>3.756261320746503E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -26557,16 +26557,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652403</v>
+        <v>0.5773502460652408</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103166</v>
       </c>
       <c r="Q8">
-        <v>3.861150082098486E-06</v>
+        <v>3.861150045770846E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -26619,16 +26619,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.577350245452343</v>
+        <v>0.5773502454523435</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474181</v>
+        <v>0.5773503165474188</v>
       </c>
       <c r="Q9">
-        <v>4.070927559085405E-06</v>
+        <v>4.07092752275657E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -26681,16 +26681,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394461</v>
+        <v>0.5773502448394466</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.577350318684521</v>
       </c>
       <c r="Q10">
-        <v>4.2807050428883E-06</v>
+        <v>4.280705000197453E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329975</v>
+        <v>0.5773502445329981</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530714</v>
+        <v>0.577350319753072</v>
       </c>
       <c r="Q11">
-        <v>4.385593764324911E-06</v>
+        <v>4.385593740717091E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -26805,16 +26805,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200067</v>
+        <v>0.5773502534200071</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.577350288765092</v>
       </c>
       <c r="Q12">
-        <v>1.343820578198749E-06</v>
+        <v>1.343820511495044E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26867,16 +26867,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200067</v>
+        <v>0.5773502534200073</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650921</v>
       </c>
       <c r="Q13">
-        <v>1.343820560417782E-06</v>
+        <v>1.343820524103614E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006606</v>
+        <v>0.5773502525006612</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707443</v>
+        <v>0.5773502919707448</v>
       </c>
       <c r="Q14">
-        <v>1.658486674613518E-06</v>
+        <v>1.658486661427913E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26991,16 +26991,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877636</v>
+        <v>0.577350251887764</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.577350294107847</v>
       </c>
       <c r="Q15">
-        <v>1.868264197998298E-06</v>
+        <v>1.868264161680843E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27053,16 +27053,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264552</v>
+        <v>0.5773502537264557</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.577350287696541</v>
       </c>
       <c r="Q16">
-        <v>1.238931845258461E-06</v>
+        <v>1.238931784916167E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -27115,16 +27115,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264553</v>
+        <v>0.5773502537264559</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965405</v>
+        <v>0.5773502876965411</v>
       </c>
       <c r="Q17">
-        <v>1.238931833838603E-06</v>
+        <v>1.238931797524738E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684174</v>
+        <v>0.5773502509684181</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134994</v>
+        <v>0.5773502973135002</v>
       </c>
       <c r="Q18">
-        <v>2.182930265478634E-06</v>
+        <v>2.182930290773135E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -27239,16 +27239,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426228</v>
+        <v>0.5773502497426235</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877033</v>
+        <v>0.5773503015877042</v>
       </c>
       <c r="Q19">
-        <v>2.602485142681096E-06</v>
+        <v>2.602485155772077E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -27301,16 +27301,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232771</v>
+        <v>0.5773502488232777</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933564</v>
+        <v>0.5773503047933571</v>
       </c>
       <c r="Q20">
-        <v>2.917151307413861E-06</v>
+        <v>2.917151306258875E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,22 +27363,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168291</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619082</v>
       </c>
       <c r="Q21">
-        <v>3.022040019380138E-06</v>
+        <v>3.02204001822485E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -27966,7 +27966,7 @@
         <v>46.18802315050826</v>
       </c>
       <c r="D2">
-        <v>46.18802315729565</v>
+        <v>46.18802315729566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -27975,7 +27975,7 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320131</v>
+        <v>266.6666760320132</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534685910504859E-09</v>
+        <v>4.534679471400005E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393526</v>
+        <v>0.5773502543393532</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594387</v>
       </c>
       <c r="Q3">
-        <v>1.02915435841597E-06</v>
+        <v>1.029154328464116E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,22 +28120,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168291</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619083</v>
       </c>
       <c r="Q4">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040016828786E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -28182,16 +28182,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426232</v>
+        <v>0.5773502497426237</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877044</v>
       </c>
       <c r="Q5">
-        <v>2.602485319515956E-06</v>
+        <v>2.602485283194609E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -28244,16 +28244,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039316</v>
+        <v>0.5773502479039322</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990098</v>
+        <v>0.5773503079990104</v>
       </c>
       <c r="Q6">
-        <v>3.231817703007531E-06</v>
+        <v>3.23181766668289E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -28306,16 +28306,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716889</v>
+        <v>0.5773502463716894</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.5773503133417655</v>
       </c>
       <c r="Q7">
-        <v>3.75626135707384E-06</v>
+        <v>3.756261320746503E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -28368,16 +28368,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652403</v>
+        <v>0.5773502460652408</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103166</v>
       </c>
       <c r="Q8">
-        <v>3.861150082098486E-06</v>
+        <v>3.861150045770846E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -28430,16 +28430,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.577350245452343</v>
+        <v>0.5773502454523435</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474181</v>
+        <v>0.5773503165474188</v>
       </c>
       <c r="Q9">
-        <v>4.070927559085405E-06</v>
+        <v>4.07092752275657E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -28492,16 +28492,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394461</v>
+        <v>0.5773502448394466</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.577350318684521</v>
       </c>
       <c r="Q10">
-        <v>4.2807050428883E-06</v>
+        <v>4.280705000197453E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -28554,16 +28554,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329975</v>
+        <v>0.5773502445329981</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530714</v>
+        <v>0.577350319753072</v>
       </c>
       <c r="Q11">
-        <v>4.385593764324911E-06</v>
+        <v>4.385593740717091E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -28616,16 +28616,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200067</v>
+        <v>0.5773502534200071</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.577350288765092</v>
       </c>
       <c r="Q12">
-        <v>1.343820578198749E-06</v>
+        <v>1.343820511495044E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -28678,16 +28678,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200067</v>
+        <v>0.5773502534200073</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650921</v>
       </c>
       <c r="Q13">
-        <v>1.343820560417782E-06</v>
+        <v>1.343820524103614E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -28740,16 +28740,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006606</v>
+        <v>0.5773502525006612</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707443</v>
+        <v>0.5773502919707448</v>
       </c>
       <c r="Q14">
-        <v>1.658486674613518E-06</v>
+        <v>1.658486661427913E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -28802,16 +28802,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877636</v>
+        <v>0.577350251887764</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.577350294107847</v>
       </c>
       <c r="Q15">
-        <v>1.868264197998298E-06</v>
+        <v>1.868264161680843E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -28864,16 +28864,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264552</v>
+        <v>0.5773502537264557</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.577350287696541</v>
       </c>
       <c r="Q16">
-        <v>1.238931845258461E-06</v>
+        <v>1.238931784916167E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28926,16 +28926,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264553</v>
+        <v>0.5773502537264559</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965405</v>
+        <v>0.5773502876965411</v>
       </c>
       <c r="Q17">
-        <v>1.238931833838603E-06</v>
+        <v>1.238931797524738E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,16 +28988,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684174</v>
+        <v>0.5773502509684181</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134994</v>
+        <v>0.5773502973135002</v>
       </c>
       <c r="Q18">
-        <v>2.182930265478634E-06</v>
+        <v>2.182930290773135E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -29050,16 +29050,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426228</v>
+        <v>0.5773502497426235</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877033</v>
+        <v>0.5773503015877042</v>
       </c>
       <c r="Q19">
-        <v>2.602485142681096E-06</v>
+        <v>2.602485155772077E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -29112,16 +29112,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232771</v>
+        <v>0.5773502488232777</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933564</v>
+        <v>0.5773503047933571</v>
       </c>
       <c r="Q20">
-        <v>2.917151307413861E-06</v>
+        <v>2.917151306258875E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,22 +29174,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168291</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619082</v>
       </c>
       <c r="Q21">
-        <v>3.022040019380138E-06</v>
+        <v>3.02204001822485E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266814</v>
+        <v>-179.9999997266815</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -29621,7 +29621,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986364</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
@@ -29630,7 +29630,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -29754,7 +29754,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9963798868877107</v>
+        <v>0.9963798868877104</v>
       </c>
       <c r="O12">
         <v>0.9864427565299282</v>
@@ -29943,7 +29943,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S12">
         <v>149.912304079789</v>
@@ -29996,19 +29996,19 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P13">
         <v>0.9900480147640851</v>
       </c>
       <c r="Q13">
-        <v>29.46075730406723</v>
+        <v>29.46075730406722</v>
       </c>
       <c r="R13">
         <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -30055,7 +30055,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
@@ -30874,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -30936,7 +30936,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986364</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
@@ -30945,7 +30945,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -31069,7 +31069,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -31246,7 +31246,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9963798868877107</v>
+        <v>0.9963798868877104</v>
       </c>
       <c r="O12">
         <v>0.9864427565299282</v>
@@ -31258,7 +31258,7 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S12">
         <v>149.912304079789</v>
@@ -31311,19 +31311,19 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P13">
         <v>0.9900480147640851</v>
       </c>
       <c r="Q13">
-        <v>29.46075730406723</v>
+        <v>29.46075730406722</v>
       </c>
       <c r="R13">
         <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
@@ -34385,19 +34385,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507352</v>
+        <v>50.00000283507351</v>
       </c>
       <c r="D2">
-        <v>50.00000283507352</v>
+        <v>50.00000283507351</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="G2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -34406,28 +34406,28 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674506</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.694071102708296E-11</v>
+        <v>-8.692538820784767E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,16 +34477,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343815</v>
+        <v>0.9526279482343817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293725</v>
+        <v>0.9526279813293728</v>
       </c>
       <c r="Q3">
-        <v>8.313215066396879E-08</v>
+        <v>8.313210828475662E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,16 +34536,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656303</v>
+        <v>0.9526279338656296</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981217</v>
+        <v>0.9526279956981215</v>
       </c>
       <c r="Q4">
-        <v>5.152361523965036E-07</v>
+        <v>5.15236064327447E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -34595,22 +34595,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906295</v>
+        <v>0.9526279368906296</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279926731211</v>
+        <v>0.9526279926731215</v>
       </c>
       <c r="Q5">
-        <v>4.242667901750028E-07</v>
+        <v>4.242667516482007E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34654,22 +34654,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531288</v>
+        <v>0.9526279323531289</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627997210621</v>
+        <v>0.9526279972106211</v>
       </c>
       <c r="Q6">
-        <v>5.607206527811399E-07</v>
+        <v>5.607206103980162E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718781</v>
+        <v>0.9526279285718784</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918705</v>
+        <v>0.9526280009918707</v>
       </c>
       <c r="Q7">
-        <v>6.744322008184266E-07</v>
+        <v>6.744321661448351E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156279</v>
+        <v>0.9526279278156281</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481206</v>
+        <v>0.9526280017481209</v>
       </c>
       <c r="Q8">
-        <v>6.971745110578895E-07</v>
+        <v>6.971744725289777E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -34831,22 +34831,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031278</v>
+        <v>0.952627926303128</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606206</v>
+        <v>0.9526280032606208</v>
       </c>
       <c r="Q9">
-        <v>7.426591276834043E-07</v>
+        <v>7.426590930093096E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,22 +34890,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906274</v>
+        <v>0.9526279247906276</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731207</v>
+        <v>0.9526280047731208</v>
       </c>
       <c r="Q10">
-        <v>7.881437416254983E-07</v>
+        <v>7.881437030958832E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,22 +34949,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343772</v>
+        <v>0.9526279240343773</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293707</v>
+        <v>0.9526280055293709</v>
       </c>
       <c r="Q11">
-        <v>8.108860461056119E-07</v>
+        <v>8.108860075758942E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991891049</v>
+        <v>179.999999189105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -35008,16 +35008,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656311</v>
+        <v>0.9526279459656313</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981227</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q12">
-        <v>1.513590720551103E-07</v>
+        <v>1.513590050240602E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35067,22 +35067,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656311</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981226</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q13">
-        <v>1.513590563005375E-07</v>
+        <v>1.513590139209201E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -35132,10 +35132,10 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668723</v>
+        <v>0.9526279858668725</v>
       </c>
       <c r="Q14">
-        <v>2.19586030486346E-07</v>
+        <v>2.195859763001407E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -35185,22 +35185,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279421843805</v>
+        <v>0.9526279421843808</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279873793718</v>
+        <v>0.952627987379372</v>
       </c>
       <c r="Q15">
-        <v>2.650706274100409E-07</v>
+        <v>2.650705888845428E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35244,16 +35244,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279467218812</v>
+        <v>0.9526279467218816</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418727</v>
+        <v>0.9526279828418728</v>
       </c>
       <c r="Q16">
-        <v>1.286167647669185E-07</v>
+        <v>1.286166977359709E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35303,22 +35303,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218812</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418724</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q17">
-        <v>1.286167490123459E-07</v>
+        <v>1.28616706632831E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -35362,16 +35362,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156306</v>
+        <v>0.9526279399156304</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.952627989648122</v>
+        <v>0.9526279896481219</v>
       </c>
       <c r="Q18">
-        <v>3.332976152808618E-07</v>
+        <v>3.332975449542905E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906304</v>
+        <v>0.9526279368906301</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731218</v>
+        <v>0.9526279926731217</v>
       </c>
       <c r="Q19">
-        <v>4.242668877868737E-07</v>
+        <v>4.242668091204311E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -35480,16 +35480,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218803</v>
+        <v>0.9526279346218798</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418718</v>
+        <v>0.9526279949418716</v>
       </c>
       <c r="Q20">
-        <v>4.924938463011247E-07</v>
+        <v>4.924937592508893E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -35539,16 +35539,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656303</v>
+        <v>0.9526279338656297</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981217</v>
+        <v>0.9526279956981216</v>
       </c>
       <c r="Q21">
-        <v>5.152361523965036E-07</v>
+        <v>5.152360653461658E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
